--- a/Ugain_Jain_3151433/target/test-classes/TestData/data.xlsx
+++ b/Ugain_Jain_3151433/target/test-classes/TestData/data.xlsx
@@ -1,41 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugainjain\Documents\API-Testing\Ugain_Jain_3151433\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EB41C8-2DB8-4C2B-B61C-48CD3C0414A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{20E3E460-C905-4EE2-A1DD-8E7E3427AD57}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE5EFFA6-BD87-4EFD-BC43-364A402F9330}"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lists" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>updatetitle</t>
+  </si>
+  <si>
+    <t>updatetitle2</t>
+  </si>
+  <si>
+    <t>haopoe</t>
+  </si>
+  <si>
+    <t>qwerty1</t>
+  </si>
+  <si>
+    <t>qwert123</t>
+  </si>
+  <si>
+    <t>tasklistid</t>
+  </si>
+  <si>
+    <t>tasktitle</t>
+  </si>
+  <si>
+    <t>taskqwerty</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>task_revision</t>
+  </si>
+  <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>tasktitleupd1</t>
+  </si>
+  <si>
+    <t>qerty2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5545149146</t>
+  </si>
+  <si>
+    <t>409134457</t>
+  </si>
+  <si>
+    <t>5547943761</t>
+  </si>
+  <si>
+    <t>409135121</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5547976278</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,16 +126,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -85,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -123,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -175,7 +242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -286,21 +353,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -369,20 +436,107 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E606A-AB27-4F8A-9D73-667FF8593A07}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.90625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.6328125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>408484263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>